--- a/Data/Processed/Angiosperms/missing_powo_ipni/Loranthaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Loranthaceae.xlsx
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
